--- a/WWW/posts/how-cells-tell-time/post_info.xlsx
+++ b/WWW/posts/how-cells-tell-time/post_info.xlsx
@@ -484,9 +484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>233640</xdr:rowOff>
+      <xdr:rowOff>234360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -500,7 +500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="65160" y="57600"/>
-          <a:ext cx="518760" cy="912600"/>
+          <a:ext cx="548280" cy="913320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -522,17 +522,15 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
